--- a/صيدليات دكتور مصطفي طلعت_2026-01-02_11-55.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-02_11-55.xlsx
@@ -47,76 +47,64 @@
     <t>CEFAZONE 1 GM VIAL</t>
   </si>
   <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>CEFOTAX 2 GM VIAL</t>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>IS IS بقدونس كرفس</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
   </si>
   <si>
     <t>5:0</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>IS IS بقدونس كرفس</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>TRIMED FLU 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.V. VIAL</t>
   </si>
   <si>
     <t>سرنجات 10 سم</t>
@@ -820,11 +808,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>258</v>
+        <v>13</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="10">
-        <v>6</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -840,17 +828,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="10">
-        <v>3</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -858,7 +846,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -866,17 +854,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -884,7 +872,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -892,17 +880,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -924,11 +912,11 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
-        <v>0.67000000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -944,17 +932,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
-        <v>0.67000000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -962,7 +950,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -970,13 +958,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
@@ -988,7 +976,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -996,17 +984,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1014,7 +1002,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1022,17 +1010,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1040,7 +1028,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1048,17 +1036,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1066,7 +1054,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1074,17 +1062,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1092,7 +1080,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1100,17 +1088,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1126,17 +1114,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>28.710000000000001</v>
+        <v>56</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1144,7 +1132,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1152,17 +1140,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1170,7 +1158,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1178,13 +1166,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
@@ -1196,7 +1184,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1204,13 +1192,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
@@ -1222,7 +1210,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1230,129 +1218,51 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" ht="24.75" customHeight="1">
-      <c r="A24" s="6">
-        <v>21</v>
-      </c>
-      <c t="s" r="B24" s="7">
-        <v>38</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c t="s" r="H24" s="8">
-        <v>39</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="9">
-        <v>20</v>
-      </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="25.5" customHeight="1">
-      <c r="A25" s="6">
-        <v>22</v>
-      </c>
-      <c t="s" r="B25" s="7">
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="K24" s="11">
+        <v>822.5</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="12">
         <v>40</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c t="s" r="H25" s="8">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c t="s" r="F25" s="13">
         <v>41</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="9">
-        <v>25</v>
-      </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" ht="24.75" customHeight="1">
-      <c r="A26" s="6">
-        <v>23</v>
-      </c>
-      <c t="s" r="B26" s="7">
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c t="s" r="I25" s="15">
         <v>42</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c t="s" r="H26" s="8">
-        <v>43</v>
-      </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="9">
-        <v>15</v>
-      </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" ht="26.25" customHeight="1">
-      <c r="K27" s="11">
-        <v>1295.21</v>
-      </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="12">
-        <v>44</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c t="s" r="F28" s="13">
-        <v>45</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14"/>
-      <c t="s" r="I28" s="15">
-        <v>46</v>
-      </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="71">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1420,19 +1330,10 @@
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:N25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
